--- a/biology/Médecine/Melchor_Sánchez_de_Toca_y_Sáenz_de_Lobera/Melchor_Sánchez_de_Toca_y_Sáenz_de_Lobera.xlsx
+++ b/biology/Médecine/Melchor_Sánchez_de_Toca_y_Sáenz_de_Lobera/Melchor_Sánchez_de_Toca_y_Sáenz_de_Lobera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Melchor_S%C3%A1nchez_de_Toca_y_S%C3%A1enz_de_Lobera</t>
+          <t>Melchor_Sánchez_de_Toca_y_Sáenz_de_Lobera</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melchor Sánchez de Toca, né à Bergara en 1806 et mort à Madrid le  4 juillet 1880, est un médecin et chirurgien espagnol. Il fut médecin de la reine Isabelle II, qui le nomma premier marquis de Toca.
 Il étudie la médecine au  Collège de Saint Charles de Madrid, où il se spécialise en chirurgie. En 1837, il obtient la chaire d'opérations de la faculté de médecine de l'université de Madrid ; il est élu la même année membre de la Real Academia de Medicina.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Melchor_S%C3%A1nchez_de_Toca_y_S%C3%A1enz_de_Lobera</t>
+          <t>Melchor_Sánchez_de_Toca_y_Sáenz_de_Lobera</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Parmi ses œuvres on peut citer :
 Memorias clínicas desde 1852 a 1858
